--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\Project\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9173D-0DA5-4CE1-8BE7-097EFF5BA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7168C9DD-9B84-40A3-A5C1-DD6E4CBF2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Chức năng người dùng</t>
+  </si>
+  <si>
+    <t>Giải thích cấu trúc thư mục, sửa db và đưa ra các quy chuẩn để code + sửa phần sơ đồ tuần tự</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -251,13 +254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E41A48-58C5-48BC-8F73-F4E51E05CF77}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,24 +660,24 @@
       <c r="G5" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -691,55 +697,55 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <v>45490</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -748,55 +754,55 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>45492</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -805,60 +811,68 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="11">
         <v>45505</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>45507</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\Project\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9173D-0DA5-4CE1-8BE7-097EFF5BA192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038864BC-E159-48E5-9FD8-AEBB8DE86F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quân" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -169,13 +170,55 @@
   </si>
   <si>
     <t>Chức năng người dùng</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cấu hình fe, be, db</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Thống kê doan thu</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin sân</t>
+  </si>
+  <si>
+    <t>Ghép code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,16 +234,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -223,12 +306,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,30 +423,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -279,9 +526,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E41A48-58C5-48BC-8F73-F4E51E05CF77}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -599,46 +846,26 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -647,42 +874,37 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45489</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -691,174 +913,174 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>45490</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>45491</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>45492</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>45502</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>45505</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7" t="s">
+      <c r="D21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7" t="s">
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -883,4 +1105,532 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1504015-8584-45DA-AB5D-4A001604EB2C}">
+  <dimension ref="A2:AH11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="34" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="25">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25">
+        <v>7</v>
+      </c>
+      <c r="K3" s="25">
+        <v>8</v>
+      </c>
+      <c r="L3" s="25">
+        <v>9</v>
+      </c>
+      <c r="M3" s="25">
+        <v>10</v>
+      </c>
+      <c r="N3" s="29">
+        <v>11</v>
+      </c>
+      <c r="O3" s="25">
+        <v>12</v>
+      </c>
+      <c r="P3" s="25">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="25">
+        <v>14</v>
+      </c>
+      <c r="R3" s="25">
+        <v>15</v>
+      </c>
+      <c r="S3" s="25">
+        <v>16</v>
+      </c>
+      <c r="T3" s="25">
+        <v>17</v>
+      </c>
+      <c r="U3" s="29">
+        <v>18</v>
+      </c>
+      <c r="V3" s="25">
+        <v>19</v>
+      </c>
+      <c r="W3" s="25">
+        <v>20</v>
+      </c>
+      <c r="X3" s="25">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="25">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="25">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="29">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="25">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="25">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="32"/>
+    </row>
+    <row r="6" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="14"/>
+    </row>
+    <row r="8" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="14"/>
+    </row>
+    <row r="9" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="14"/>
+    </row>
+    <row r="10" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="14"/>
+    </row>
+    <row r="11" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:AH2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7168C9DD-9B84-40A3-A5C1-DD6E4CBF2C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AF0C1-1E06-4501-9502-31943C08ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Giang" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -172,12 +173,57 @@
   </si>
   <si>
     <t>Giải thích cấu trúc thư mục, sửa db và đưa ra các quy chuẩn để code + sửa phần sơ đồ tuần tự</t>
+  </si>
+  <si>
+    <t>Đầu việc</t>
+  </si>
+  <si>
+    <t>Bắt đầu</t>
+  </si>
+  <si>
+    <t>Kết thúc</t>
+  </si>
+  <si>
+    <t>Khởi tạo cấu trúc thư mục BE</t>
+  </si>
+  <si>
+    <t>Viết liquibase</t>
+  </si>
+  <si>
+    <t>Config Security + Jwt</t>
+  </si>
+  <si>
+    <t>Xây dựng api đăng ký đăng nhập</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện đăng ký đăng nhập</t>
+  </si>
+  <si>
+    <t>Xây dựng dựng service token và interceptor</t>
+  </si>
+  <si>
+    <t>Xây dựng api xem thông tin user</t>
+  </si>
+  <si>
+    <t>Xây dựng page user</t>
+  </si>
+  <si>
+    <t>Xây dựng api sân bóng</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện sân bóng</t>
+  </si>
+  <si>
+    <t>Xây dựng giao diện chi tiết sân bóng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,6 +312,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -583,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E41A48-58C5-48BC-8F73-F4E51E05CF77}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,4 +944,157 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E95BBF-BC24-4502-8852-C3966794EEF4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45506</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45508</v>
+      </c>
+      <c r="C3" s="12">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45510</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12">
+        <v>45512</v>
+      </c>
+      <c r="C5" s="12">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45514</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45516</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45518</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45520</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45522</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12">
+        <v>45524</v>
+      </c>
+      <c r="C11" s="12">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12">
+        <v>45526</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AF0C1-1E06-4501-9502-31943C08ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010DA0A-7EDF-44EF-A54F-4F236BD6BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Giang" sheetId="2" r:id="rId2"/>
+    <sheet name="Quan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -215,6 +216,48 @@
   </si>
   <si>
     <t>Xây dựng giao diện chi tiết sân bóng</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cấu hình fe, be, db</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Thống kê doan thu</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin sân</t>
+  </si>
+  <si>
+    <t>Ghép code</t>
   </si>
 </sst>
 </file>
@@ -222,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,16 +283,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -272,12 +348,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,34 +441,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -332,9 +528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,46 +848,26 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -700,42 +876,37 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45489</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -744,177 +915,177 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>45490</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>45491</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>45492</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>45502</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>45505</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7" t="s">
+      <c r="D21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="7" t="s">
+      <c r="D22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>45507</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -950,146 +1121,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E95BBF-BC24-4502-8852-C3966794EEF4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="36.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="5">
         <v>45506</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="5">
         <v>45507</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="5">
         <v>45508</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="5">
         <v>45509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="5">
         <v>45510</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>45511</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>45512</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="5">
         <v>45513</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="5">
         <v>45514</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="5">
         <v>45515</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="5">
         <v>45516</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <v>45517</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="5">
         <v>45518</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>45519</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="5">
         <v>45520</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <v>45521</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="5">
         <v>45522</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>45523</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="5">
         <v>45524</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>45525</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="5">
         <v>45526</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>45527</v>
       </c>
     </row>
@@ -1097,4 +1268,530 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5B5D6-8617-4967-A07A-E800174A651F}">
+  <dimension ref="B2:AI11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="35" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>7</v>
+      </c>
+      <c r="L3" s="11">
+        <v>8</v>
+      </c>
+      <c r="M3" s="11">
+        <v>9</v>
+      </c>
+      <c r="N3" s="12">
+        <v>10</v>
+      </c>
+      <c r="O3" s="11">
+        <v>11</v>
+      </c>
+      <c r="P3" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>13</v>
+      </c>
+      <c r="R3" s="11">
+        <v>14</v>
+      </c>
+      <c r="S3" s="11">
+        <v>15</v>
+      </c>
+      <c r="T3" s="11">
+        <v>16</v>
+      </c>
+      <c r="U3" s="11">
+        <v>17</v>
+      </c>
+      <c r="V3" s="12">
+        <v>18</v>
+      </c>
+      <c r="W3" s="11">
+        <v>19</v>
+      </c>
+      <c r="X3" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
+    </row>
+    <row r="6" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="20"/>
+    </row>
+    <row r="7" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="15"/>
+    </row>
+    <row r="8" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="15"/>
+    </row>
+    <row r="9" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="15"/>
+    </row>
+    <row r="10" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="15"/>
+    </row>
+    <row r="11" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:AI2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010DA0A-7EDF-44EF-A54F-4F236BD6BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD44E2-6B3C-4AB1-9999-EF3787344AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Giang" sheetId="2" r:id="rId2"/>
-    <sheet name="Quan" sheetId="3" r:id="rId3"/>
+    <sheet name="Phuc" sheetId="4" r:id="rId3"/>
+    <sheet name="Quan" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -258,6 +259,48 @@
   </si>
   <si>
     <t>Ghép code</t>
+  </si>
+  <si>
+    <t>ngày 5/8</t>
+  </si>
+  <si>
+    <t>xong api đặt sân và hủy sân</t>
+  </si>
+  <si>
+    <t>ngày 7/8</t>
+  </si>
+  <si>
+    <t>xong  api phần xem lịch sử sân</t>
+  </si>
+  <si>
+    <t>Ngày 9/8</t>
+  </si>
+  <si>
+    <t>xong api comment</t>
+  </si>
+  <si>
+    <t>ngày 11/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện đặt sân</t>
+  </si>
+  <si>
+    <t>ngày 14/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện lịch sử</t>
+  </si>
+  <si>
+    <t>ngày 17/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện hủy sân</t>
+  </si>
+  <si>
+    <t>Ngày 20/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện comment</t>
   </si>
 </sst>
 </file>
@@ -433,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,21 +491,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,37 +504,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -858,13 +904,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -878,24 +924,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -915,55 +961,55 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="23">
         <v>45490</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -972,55 +1018,55 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="23">
         <v>45492</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1029,60 +1075,60 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="23">
         <v>45505</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="21"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1122,7 +1168,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,10 +1317,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D01F377-9B2E-4673-BCCE-3AF226E28FDD}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5B5D6-8617-4967-A07A-E800174A651F}">
   <dimension ref="B2:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1284,502 +1424,502 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="6">
         <v>6</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="6">
         <v>7</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="6">
         <v>8</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="6">
         <v>9</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>10</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="6">
         <v>11</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="6">
         <v>12</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>13</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="6">
         <v>14</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="6">
         <v>15</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="6">
         <v>16</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="6">
         <v>17</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>18</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="6">
         <v>19</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="6">
         <v>20</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="6">
         <v>21</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="6">
         <v>22</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="6">
         <v>23</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="6">
         <v>24</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="7">
         <v>25</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="6">
         <v>26</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="6">
         <v>27</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="6">
         <v>28</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="6">
         <v>29</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="6">
         <v>30</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="15"/>
+      <c r="B5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="10"/>
     </row>
     <row r="6" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="10"/>
     </row>
     <row r="11" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1010DA0A-7EDF-44EF-A54F-4F236BD6BFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE101B60-AE00-4057-ADED-D04372425323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Ghép code</t>
+  </si>
+  <si>
+    <t>Merge code</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +307,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -325,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -428,12 +438,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,21 +544,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,37 +557,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,9 +654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,7 +976,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -858,13 +984,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -878,24 +1004,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -915,55 +1041,55 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="23">
         <v>45490</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -972,55 +1098,55 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="21" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="23">
         <v>45492</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1029,60 +1155,60 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="23">
         <v>45505</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="D22" s="21"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1119,20 +1245,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E95BBF-BC24-4502-8852-C3966794EEF4}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.6640625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="0.88671875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="18.88671875" style="5" customWidth="1"/>
+    <col min="8" max="10" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="3" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +1281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
@@ -1153,8 +1291,46 @@
       <c r="C2" s="5">
         <v>45507</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1164,8 +1340,104 @@
       <c r="C3" s="5">
         <v>45509</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6">
+        <v>7</v>
+      </c>
+      <c r="O3" s="6">
+        <v>8</v>
+      </c>
+      <c r="P3" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6">
+        <v>11</v>
+      </c>
+      <c r="S3" s="6">
+        <v>12</v>
+      </c>
+      <c r="T3" s="6">
+        <v>13</v>
+      </c>
+      <c r="U3" s="6">
+        <v>14</v>
+      </c>
+      <c r="V3" s="6">
+        <v>15</v>
+      </c>
+      <c r="W3" s="6">
+        <v>16</v>
+      </c>
+      <c r="X3" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>27</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>29</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1175,8 +1447,104 @@
       <c r="C4" s="5">
         <v>45511</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
@@ -1186,8 +1554,42 @@
       <c r="C5" s="5">
         <v>45513</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="8"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="10"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -1197,8 +1599,44 @@
       <c r="C6" s="5">
         <v>45515</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="14"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1208,8 +1646,41 @@
       <c r="C7" s="5">
         <v>45517</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="16"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="10"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -1219,8 +1690,39 @@
       <c r="C8" s="5">
         <v>45519</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="10"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -1230,8 +1732,40 @@
       <c r="C9" s="5">
         <v>45521</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="10"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1241,8 +1775,40 @@
       <c r="C10" s="5">
         <v>45523</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="10"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1252,8 +1818,34 @@
       <c r="C11" s="5">
         <v>45525</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AL11" s="37"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -1263,8 +1855,253 @@
       <c r="C12" s="5">
         <v>45527</v>
       </c>
+      <c r="E12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="29"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="E13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="29"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="E14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="E15" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="29"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="E16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="37"/>
+    </row>
+    <row r="17" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="E17" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+    </row>
+    <row r="29" spans="5:38" x14ac:dyDescent="0.3">
+      <c r="M29" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="H2:AL2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1274,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5B5D6-8617-4967-A07A-E800174A651F}">
   <dimension ref="B2:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,502 +2121,502 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="7">
         <v>4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="6">
         <v>6</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="6">
         <v>7</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="6">
         <v>8</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="6">
         <v>9</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>10</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="6">
         <v>11</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="6">
         <v>12</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="6">
         <v>13</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="6">
         <v>14</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="6">
         <v>15</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="6">
         <v>16</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="6">
         <v>17</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>18</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="6">
         <v>19</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="6">
         <v>20</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="6">
         <v>21</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="6">
         <v>22</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="6">
         <v>23</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="6">
         <v>24</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="7">
         <v>25</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AD3" s="6">
         <v>26</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="6">
         <v>27</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="6">
         <v>28</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="6">
         <v>29</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="6">
         <v>30</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AA4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AB4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="15"/>
+      <c r="B5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="10"/>
     </row>
     <row r="6" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="15"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="15"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="10"/>
     </row>
     <row r="11" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE101B60-AE00-4057-ADED-D04372425323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849F9A8-5785-4B72-9929-A9F98E3F6A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Giang" sheetId="2" r:id="rId2"/>
-    <sheet name="Quan" sheetId="3" r:id="rId3"/>
+    <sheet name="Phuc" sheetId="4" r:id="rId2"/>
+    <sheet name="Giang" sheetId="2" r:id="rId3"/>
+    <sheet name="Quan" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -261,6 +262,48 @@
   </si>
   <si>
     <t>Merge code</t>
+  </si>
+  <si>
+    <t>ngày 5/8</t>
+  </si>
+  <si>
+    <t>xong api đặt sân và hủy sân</t>
+  </si>
+  <si>
+    <t>ngày 7/8</t>
+  </si>
+  <si>
+    <t>xong  api phần xem lịch sử sân</t>
+  </si>
+  <si>
+    <t>Ngày 9/8</t>
+  </si>
+  <si>
+    <t>xong api comment</t>
+  </si>
+  <si>
+    <t>ngày 11/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện đặt sân</t>
+  </si>
+  <si>
+    <t>ngày 14/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện lịch sử</t>
+  </si>
+  <si>
+    <t>ngày 17/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện hủy sân</t>
+  </si>
+  <si>
+    <t>Ngày 20/8</t>
+  </si>
+  <si>
+    <t>xây dựng giao diện comment</t>
   </si>
 </sst>
 </file>
@@ -529,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,43 +630,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -633,6 +641,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -654,9 +693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -694,7 +733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -800,7 +839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -976,7 +1015,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -984,13 +1023,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1004,24 +1043,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1041,55 +1080,55 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="30" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+      <c r="A12" s="32">
         <v>45490</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -1098,55 +1137,55 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="30" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="32">
         <v>45492</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1155,60 +1194,60 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="32">
         <v>45505</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="D21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1244,10 +1283,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDF18CD-4B8B-42DE-BEFC-BFCEF0A28104}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E95BBF-BC24-4502-8852-C3966794EEF4}">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
@@ -1291,44 +1424,44 @@
       <c r="C2" s="5">
         <v>45507</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+      <c r="AL2" s="38"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1340,9 +1473,9 @@
       <c r="C3" s="5">
         <v>45509</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="6">
         <v>1</v>
       </c>
@@ -1447,9 +1580,9 @@
       <c r="C4" s="5">
         <v>45511</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1599,15 +1732,15 @@
       <c r="C6" s="5">
         <v>45515</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -1646,15 +1779,15 @@
       <c r="C7" s="5">
         <v>45517</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="31"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -1690,12 +1823,12 @@
       <c r="C8" s="5">
         <v>45519</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="30"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1732,12 +1865,12 @@
       <c r="C9" s="5">
         <v>45521</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1775,12 +1908,12 @@
       <c r="C10" s="5">
         <v>45523</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1818,32 +1951,32 @@
       <c r="C11" s="5">
         <v>45525</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="16"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AL11" s="37"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AL11" s="24"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1855,238 +1988,214 @@
       <c r="C12" s="5">
         <v>45527</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="22"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="29"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="29"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="22"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
       <c r="AA15" s="16"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="29"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="22"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="37"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="23"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AL16" s="24"/>
     </row>
     <row r="17" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="42"/>
-    </row>
-    <row r="29" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="M29" s="27"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="H2:AL2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E10:G10"/>
@@ -2095,19 +2204,13 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="H2:AL2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5B5D6-8617-4967-A07A-E800174A651F}">
   <dimension ref="B2:AI11"/>
   <sheetViews>
@@ -2121,49 +2224,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
@@ -2259,9 +2362,9 @@
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="6" t="s">
         <v>62</v>
       </c>
@@ -2391,11 +2494,11 @@
       <c r="AI5" s="10"/>
     </row>
     <row r="6" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2429,11 +2532,11 @@
       <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="15"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2467,11 +2570,11 @@
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2505,11 +2608,11 @@
       <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="15"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2543,11 +2646,11 @@
       <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="15"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2581,11 +2684,11 @@
       <c r="AI10" s="10"/>
     </row>
     <row r="11" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>

--- a/hop/log.xlsx
+++ b/hop/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects A2M\Intern-Atwom\hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternAtwoM\project\hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4849F9A8-5785-4B72-9929-A9F98E3F6A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB962B-C192-4B03-B9C0-050250B4BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78C26181-3197-4AC1-B1A0-F8D659C78093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>Nhóm 2</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>xây dựng giao diện comment</t>
+  </si>
+  <si>
+    <t>ghép code</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -567,12 +570,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,6 +660,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,28 +671,73 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,9 +757,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,7 +797,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -839,7 +903,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -981,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E41A48-58C5-48BC-8F73-F4E51E05CF77}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:AV28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,74 +1067,568 @@
     <col min="4" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="25.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="17" width="9.109375" style="1"/>
+    <col min="18" max="20" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="48" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="O1" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+    </row>
+    <row r="2" spans="1:48" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="6">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6">
+        <v>3</v>
+      </c>
+      <c r="U2" s="7">
+        <v>4</v>
+      </c>
+      <c r="V2" s="6">
+        <v>5</v>
+      </c>
+      <c r="W2" s="6">
+        <v>6</v>
+      </c>
+      <c r="X2" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>16</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>17</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="6">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>24</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>26</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="6">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="6">
+        <v>29</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="8"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="10"/>
+    </row>
+    <row r="5" spans="1:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="O5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="10"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="10"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="O8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="10"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="O9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="O10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="24"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>45489</v>
       </c>
@@ -1080,185 +1638,846 @@
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="O11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="22"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>45490</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="O12" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="22"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="O13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="22"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="30"/>
-    </row>
-    <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="31"/>
+      <c r="O14" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="22"/>
+    </row>
+    <row r="15" spans="1:48" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>45491</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="31" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+      <c r="O15" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="57"/>
+    </row>
+    <row r="16" spans="1:48" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>45492</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="O16" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="10"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="O17" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="10"/>
+    </row>
+    <row r="18" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="31"/>
+      <c r="O18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="10"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>45502</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="31" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="O19" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="10"/>
+    </row>
+    <row r="20" spans="1:48" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
         <v>45505</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="O20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="10"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="O21" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="10"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I22" s="31"/>
+      <c r="O22" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="10"/>
+    </row>
+    <row r="23" spans="1:48" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>45507</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="O23" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="10"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O24" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="10"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O25" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
+      <c r="AQ25" s="30"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="30"/>
+      <c r="AT25" s="30"/>
+      <c r="AU25" s="30"/>
+      <c r="AV25" s="10"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O26" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AV26" s="53"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O27" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="53"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="O28" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="41">
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R1:AV1"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O1:Q3"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="G19:G22"/>
@@ -1286,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDF18CD-4B8B-42DE-BEFC-BFCEF0A28104}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,71 +2515,71 @@
       <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1381,7 +2600,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+      <selection activeCell="E2" sqref="E2:AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,44 +2643,44 @@
       <c r="C2" s="5">
         <v>45507</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1473,9 +2692,9 @@
       <c r="C3" s="5">
         <v>45509</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="6">
         <v>1</v>
       </c>
@@ -1580,9 +2799,9 @@
       <c r="C4" s="5">
         <v>45511</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1988,11 +3207,11 @@
       <c r="C12" s="5">
         <v>45527</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -2026,11 +3245,11 @@
       <c r="AL12" s="22"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -2064,11 +3283,11 @@
       <c r="AL13" s="22"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -2102,11 +3321,11 @@
       <c r="AL14" s="22"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
@@ -2140,22 +3359,22 @@
       <c r="AL15" s="22"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="23"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AL16" s="24"/>
     </row>
     <row r="17" spans="5:38" x14ac:dyDescent="0.3">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -2190,12 +3409,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E2:G4"/>
-    <mergeCell ref="H2:AL2"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E10:G10"/>
@@ -2204,6 +3417,12 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E2:G4"/>
+    <mergeCell ref="H2:AL2"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2215,7 +3434,7 @@
   <dimension ref="B2:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI11"/>
+      <selection activeCell="B6" sqref="B6:AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,49 +3443,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="6">
         <v>1</v>
       </c>
@@ -2362,9 +3581,9 @@
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="6" t="s">
         <v>62</v>
       </c>
@@ -2494,11 +3713,11 @@
       <c r="AI5" s="10"/>
     </row>
     <row r="6" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2532,11 +3751,11 @@
       <c r="AI6" s="14"/>
     </row>
     <row r="7" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="15"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2570,11 +3789,11 @@
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="15"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2608,11 +3827,11 @@
       <c r="AI8" s="10"/>
     </row>
     <row r="9" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="15"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2646,11 +3865,11 @@
       <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="15"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2684,11 +3903,11 @@
       <c r="AI10" s="10"/>
     </row>
     <row r="11" spans="2:35" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
